--- a/database/CurrentOpportunitiesSearchResults.xlsx
+++ b/database/CurrentOpportunitiesSearchResults.xlsx
@@ -79,6 +79,27 @@
     <t>April 6, 2026</t>
   </si>
   <si>
+    <t>Design, Supply and Installation of e Land Registry Information System</t>
+  </si>
+  <si>
+    <t>Caribbean</t>
+  </si>
+  <si>
+    <t>Caribbean Digital Transformation Project</t>
+  </si>
+  <si>
+    <t>Goods</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>February 17, 2026</t>
+  </si>
+  <si>
+    <t>March 26, 2026</t>
+  </si>
+  <si>
     <t>Travaux de construction du système d’Alimentation en Eau potable (SAEP) de Décovil</t>
   </si>
   <si>
@@ -124,9 +145,6 @@
     <t>Non-consulting Services</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>February 2, 2026</t>
   </si>
   <si>
@@ -142,9 +160,6 @@
     <t>Belize Blue Cities and Beyond Project</t>
   </si>
   <si>
-    <t>Goods</t>
-  </si>
-  <si>
     <t>February 12, 2026</t>
   </si>
   <si>
@@ -187,9 +202,6 @@
     <t>Procurement of an Administrative Assistant</t>
   </si>
   <si>
-    <t>Caribbean</t>
-  </si>
-  <si>
     <t>Windward Islands Sector Transformation for Learning Enhancement</t>
   </si>
   <si>
@@ -340,6 +352,15 @@
     <t>Amazon Sustainable Landscapes Project</t>
   </si>
   <si>
+    <t>SERVICIO DE CONSULTORIA INDIVIDUAL PARA LA CONTRATACIÓN DE CUATRO (4) ESPECIALISTAS EN OBRAS CIVILES DEL COMPONENTE INGENIERIA DE LOS SUBPROYECTOS DEL PIT</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Transmission Investment Plan (PIT) to support Post-COVID-19 Green Economic Recovery in Peru</t>
+  </si>
+  <si>
     <t>ADQUISICIÓN DE INSUMOS MÉDICOS</t>
   </si>
   <si>
@@ -358,6 +379,9 @@
     <t>December 22, 2025</t>
   </si>
   <si>
+    <t>SERVICIO DE CONSULTORIA INDIVIDUAL PARA LA CONTRATACIÓN DE CUATRO (4) ESPECIALISTAS DE SUBESTACIONES DE POTENCIA DEL COMPONENTE INGENIERIA DE LOS SUBPROYECTOS DEL PIT</t>
+  </si>
+  <si>
     <t>Optimización de procesos regulatorios para la creación de empresas y lanzamiento de productos en ecosistemas de innovación</t>
   </si>
   <si>
@@ -422,30 +446,6 @@
   </si>
   <si>
     <t>MPA on Infrastructure for Sustainable Mining in NW Argentina</t>
-  </si>
-  <si>
-    <t>Aquisição de materiais para construção e instalação do viveiro Escola Familiar Rural. (IDEFLOR-Bio)</t>
-  </si>
-  <si>
-    <t>February 19, 2026</t>
-  </si>
-  <si>
-    <t>Consultancy for the Preparation of an Analytical Report on the Youth in OECS Data for Decision Making (DDM) Project Beneficiary Countries</t>
-  </si>
-  <si>
-    <t>OECS Countries</t>
-  </si>
-  <si>
-    <t>OECS Data for Decision Making (DDM) Project</t>
-  </si>
-  <si>
-    <t>February 18, 2026</t>
-  </si>
-  <si>
-    <t>Procurement Officer</t>
-  </si>
-  <si>
-    <t>January 28, 2026</t>
   </si>
 </sst>
 </file>
@@ -916,48 +916,48 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
         <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
       </c>
       <c r="H5" t="s">
         <v>32</v>
@@ -974,16 +974,16 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
         <v>39</v>
@@ -1006,88 +1006,88 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
         <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
         <v>56</v>
@@ -1104,71 +1104,71 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
         <v>61</v>
-      </c>
-      <c r="H12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1176,74 +1176,74 @@
         <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" t="s">
         <v>69</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s">
         <v>77</v>
@@ -1254,48 +1254,48 @@
         <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
         <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="H18" t="s">
         <v>81</v>
@@ -1303,262 +1303,262 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" t="s">
         <v>85</v>
-      </c>
-      <c r="H21" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" t="s">
         <v>90</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="H25" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H26" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="H27" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G28" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="H28" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1566,129 +1566,129 @@
         <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="H29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="H30" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G31" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" t="s">
-        <v>114</v>
-      </c>
       <c r="H32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H33" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1696,25 +1696,25 @@
         <v>119</v>
       </c>
       <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" t="s">
         <v>121</v>
       </c>
-      <c r="D34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s">
-        <v>38</v>
-      </c>
       <c r="H34" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1722,155 +1722,155 @@
         <v>122</v>
       </c>
       <c r="B35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" t="s">
-        <v>124</v>
-      </c>
       <c r="H35" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="H36" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" t="s">
         <v>126</v>
-      </c>
-      <c r="B37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="H38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="H39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G40" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1878,25 +1878,25 @@
         <v>135</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1904,51 +1904,51 @@
         <v>137</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="H42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G43" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="H43" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1956,25 +1956,25 @@
         <v>143</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="D44" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="H44" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
